--- a/iceberg/task/imgs/iceberg_times.xlsx
+++ b/iceberg/task/imgs/iceberg_times.xlsx
@@ -304,7 +304,7 @@
   </sheetPr>
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
